--- a/data/trans_orig/P77_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P77_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{54BA55E4-F024-449B-8FA8-C366DEF7DF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D25E9BE-6EE0-48BA-B9C0-51E967AD1CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{196A58C2-B116-4DF4-9A15-CCF42B2FAF26}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AF9BC40A-2FC1-4914-86A2-EA993ACED99E}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="190">
   <si>
     <t>Población según cual es el sustentador principal del hogar en 2023 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -74,532 +74,535 @@
     <t>81,68%</t>
   </si>
   <si>
-    <t>74,82%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
   </si>
   <si>
     <t>81,12%</t>
   </si>
   <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>ADULTO QUE CONTESTA POR EL NIÑO/A</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>ADULTO SELECCIONADO y realiza encuesta</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>38,42%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,04%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
     <t>74,88%</t>
   </si>
   <si>
-    <t>86,13%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>ADULTO QUE CONTESTA POR EL NIÑO/A</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
+    <t>84,51%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>66,1%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>34,73%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>60,8%</t>
+  </si>
+  <si>
+    <t>77,12%</t>
+  </si>
+  <si>
+    <t>75,05%</t>
+  </si>
+  <si>
+    <t>78,86%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>98,19%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>51,61%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
   </si>
   <si>
     <t>0,74%</t>
   </si>
   <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>ADULTO SELECCIONADO y realiza encuesta</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>38,42%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>26,38%</t>
-  </si>
-  <si>
-    <t>33,74%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>84,51%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>54,36%</t>
-  </si>
-  <si>
-    <t>68,49%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>68,78%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>39,2%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>54,47%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>77,12%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>43,37%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
     <t>0,32%</t>
   </si>
   <si>
-    <t>2,78%</t>
+    <t>2,32%</t>
   </si>
   <si>
     <t>84,28%</t>
   </si>
   <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
   </si>
   <si>
     <t>53,24%</t>
   </si>
   <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
   </si>
   <si>
     <t>67,79%</t>
   </si>
   <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1014,7 +1017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70B49C4-C4A3-4680-8405-1B080B8839FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E656000E-8EEA-4F77-B41E-CF2B37319D23}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1885,7 +1888,7 @@
         <v>1368</v>
       </c>
       <c r="N18" s="7">
-        <v>1168039</v>
+        <v>1168038</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>118</v>
@@ -1894,7 +1897,7 @@
         <v>119</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>11</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1936,7 +1939,7 @@
         <v>1806</v>
       </c>
       <c r="N19" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -1950,7 +1953,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1962,13 +1965,13 @@
         <v>20968</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H20" s="7">
         <v>416</v>
@@ -1977,13 +1980,13 @@
         <v>252981</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M20" s="7">
         <v>445</v>
@@ -1992,13 +1995,13 @@
         <v>273949</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2016,10 +2019,10 @@
         <v>54</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -2031,10 +2034,10 @@
         <v>54</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
@@ -2046,7 +2049,7 @@
         <v>54</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>104</v>
@@ -2064,13 +2067,13 @@
         <v>579189</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H22" s="7">
         <v>586</v>
@@ -2079,13 +2082,13 @@
         <v>344082</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M22" s="7">
         <v>1220</v>
@@ -2094,13 +2097,13 @@
         <v>923271</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2156,7 +2159,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2168,13 +2171,13 @@
         <v>18170</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H24" s="7">
         <v>849</v>
@@ -2183,13 +2186,13 @@
         <v>578986</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M24" s="7">
         <v>878</v>
@@ -2198,13 +2201,13 @@
         <v>597156</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,10 +2225,10 @@
         <v>54</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -2237,10 +2240,10 @@
         <v>54</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
@@ -2252,10 +2255,10 @@
         <v>54</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2267,16 +2270,16 @@
         <v>999</v>
       </c>
       <c r="D26" s="7">
-        <v>679584</v>
+        <v>679585</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>859</v>
@@ -2285,13 +2288,13 @@
         <v>447651</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1858</v>
@@ -2300,13 +2303,13 @@
         <v>1127236</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2318,7 +2321,7 @@
         <v>1028</v>
       </c>
       <c r="D27" s="7">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -2374,13 +2377,13 @@
         <v>522659</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H28" s="7">
         <v>2256</v>
@@ -2389,28 +2392,28 @@
         <v>1749832</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M28" s="7">
         <v>2586</v>
       </c>
       <c r="N28" s="7">
-        <v>2272491</v>
+        <v>2272490</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,10 +2428,10 @@
         <v>9611</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>172</v>
+        <v>83</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>173</v>
@@ -2455,13 +2458,13 @@
         <v>53320</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>25</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2476,13 +2479,13 @@
         <v>2852958</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H30" s="7">
         <v>3090</v>
@@ -2491,13 +2494,13 @@
         <v>2042040</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M30" s="7">
         <v>6127</v>
@@ -2506,13 +2509,13 @@
         <v>4894998</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2554,7 +2557,7 @@
         <v>8743</v>
       </c>
       <c r="N31" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -2568,7 +2571,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P77_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P77_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D25E9BE-6EE0-48BA-B9C0-51E967AD1CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17FAB4F4-8305-46C7-BEFB-266D9FCA5C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AF9BC40A-2FC1-4914-86A2-EA993ACED99E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FFFE5484-B66F-4331-BE9C-5F025194A893}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1017,7 +1017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E656000E-8EEA-4F77-B41E-CF2B37319D23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B244BEDC-46D2-4296-A2F2-9DB43FCF31BF}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
